--- a/Blossom Academy Fellowship/Microsoft_Excel/Sample_data_Excel functions examples.xlsx
+++ b/Blossom Academy Fellowship/Microsoft_Excel/Sample_data_Excel functions examples.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Blossom Academy\Paris-Frank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oabas\Documents\GitHub\Introduction_to_Data_Science\Blossom Academy Fellowship\Microsoft_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F49B9E-46D0-40CD-8E4B-564BA135E387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3682B5F-D7D6-4669-813E-74361A30789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VLOOKUP" sheetId="30" state="hidden" r:id="rId1"/>
-    <sheet name="HLOOKUP" sheetId="29" state="hidden" r:id="rId2"/>
-    <sheet name="Text to column" sheetId="28" state="hidden" r:id="rId3"/>
-    <sheet name="Concat" sheetId="27" state="veryHidden" r:id="rId4"/>
-    <sheet name="Trim" sheetId="26" state="veryHidden" r:id="rId5"/>
-    <sheet name="Round" sheetId="25" state="veryHidden" r:id="rId6"/>
-    <sheet name="Count" sheetId="24" state="hidden" r:id="rId7"/>
+    <sheet name="VLOOKUP" sheetId="30" r:id="rId1"/>
+    <sheet name="HLOOKUP" sheetId="29" r:id="rId2"/>
+    <sheet name="Text to column" sheetId="28" r:id="rId3"/>
+    <sheet name="Concat" sheetId="27" r:id="rId4"/>
+    <sheet name="Trim" sheetId="26" r:id="rId5"/>
+    <sheet name="Round" sheetId="25" r:id="rId6"/>
+    <sheet name="Count" sheetId="24" r:id="rId7"/>
     <sheet name="Aggregate function" sheetId="22" r:id="rId8"/>
-    <sheet name="IF_Function" sheetId="21" state="hidden" r:id="rId9"/>
+    <sheet name="IF_Function" sheetId="21" r:id="rId9"/>
     <sheet name="SUMIF" sheetId="23" r:id="rId10"/>
     <sheet name="weather" sheetId="34" r:id="rId11"/>
     <sheet name="Get Data" sheetId="31" r:id="rId12"/>
@@ -54,8 +54,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="767">
   <si>
     <t>OrderDate</t>
   </si>
@@ -2300,6 +2303,81 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Round_sales</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perry</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cage</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Doe</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arun</t>
+  </si>
+  <si>
+    <t>Kadir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhaval </t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Sudhir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Devu</t>
+  </si>
+  <si>
+    <t>Parvir</t>
+  </si>
+  <si>
+    <t>Dewali</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xing</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ting</t>
+  </si>
+  <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Li</t>
   </si>
 </sst>
 </file>
@@ -2307,9 +2385,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2576,7 +2654,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2588,7 +2666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2606,7 +2684,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2630,12 +2708,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2666,13 +2744,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3598,18 +3676,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930E50D9-4078-4070-A148-72075A84B99A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="A1:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>227</v>
       </c>
@@ -3626,7 +3704,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>208</v>
       </c>
@@ -3643,7 +3721,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>235</v>
       </c>
@@ -3666,7 +3744,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>239</v>
       </c>
@@ -3689,8 +3767,12 @@
         <f>VLOOKUP(H3,B3:E26,4,FALSE)</f>
         <v>66000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>VLOOKUP(H3,B2:E25,4,FALSE)</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>242</v>
       </c>
@@ -3707,7 +3789,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>244</v>
       </c>
@@ -3724,7 +3806,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>246</v>
       </c>
@@ -3741,7 +3823,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>248</v>
       </c>
@@ -3759,7 +3841,7 @@
       </c>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>250</v>
       </c>
@@ -3776,7 +3858,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>252</v>
       </c>
@@ -3793,7 +3875,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>254</v>
       </c>
@@ -3810,7 +3892,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>256</v>
       </c>
@@ -3827,7 +3909,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>259</v>
       </c>
@@ -3844,7 +3926,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>261</v>
       </c>
@@ -3861,7 +3943,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>263</v>
       </c>
@@ -3878,7 +3960,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>265</v>
       </c>
@@ -3895,7 +3977,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
@@ -3912,7 +3994,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>268</v>
       </c>
@@ -3929,7 +4011,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>270</v>
       </c>
@@ -3946,7 +4028,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>272</v>
       </c>
@@ -3963,7 +4045,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>274</v>
       </c>
@@ -3980,7 +4062,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>276</v>
       </c>
@@ -3997,7 +4079,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>278</v>
       </c>
@@ -4014,7 +4096,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>280</v>
       </c>
@@ -4031,7 +4113,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>281</v>
       </c>
@@ -4062,15 +4144,15 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43831</v>
       </c>
@@ -4123,7 +4205,7 @@
         <v>58.41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43834</v>
       </c>
@@ -4150,7 +4232,7 @@
         <v>303.63</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43837</v>
       </c>
@@ -4186,7 +4268,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43840</v>
       </c>
@@ -4224,7 +4306,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43843</v>
       </c>
@@ -4254,7 +4336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43846</v>
       </c>
@@ -4284,7 +4366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43849</v>
       </c>
@@ -4311,7 +4393,7 @@
         <v>520.01</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43852</v>
       </c>
@@ -4338,7 +4420,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43855</v>
       </c>
@@ -4365,7 +4447,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43858</v>
       </c>
@@ -4392,7 +4474,7 @@
         <v>37.800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43861</v>
       </c>
@@ -4419,7 +4501,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43864</v>
       </c>
@@ -4446,7 +4528,7 @@
         <v>57.97</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43867</v>
       </c>
@@ -4473,7 +4555,7 @@
         <v>97.72</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43870</v>
       </c>
@@ -4517,15 +4599,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>283</v>
       </c>
@@ -4539,7 +4621,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>287</v>
       </c>
@@ -4553,7 +4635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>288</v>
       </c>
@@ -4567,7 +4649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>289</v>
       </c>
@@ -4581,7 +4663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>290</v>
       </c>
@@ -4595,7 +4677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>291</v>
       </c>
@@ -4609,7 +4691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>292</v>
       </c>
@@ -4623,7 +4705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>293</v>
       </c>
@@ -4637,7 +4719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>287</v>
       </c>
@@ -4651,7 +4733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -4660,7 +4742,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4669,7 +4751,7 @@
         <v>28.375</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4678,7 +4760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -4687,7 +4769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>735</v>
       </c>
@@ -4696,7 +4778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>736</v>
       </c>
@@ -4705,7 +4787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>737</v>
       </c>
@@ -4727,9 +4809,9 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4744,22 +4826,22 @@
       <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>294</v>
       </c>
@@ -4794,7 +4876,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4829,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4864,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4899,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4934,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4969,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5004,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5039,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5074,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5109,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5144,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5179,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5214,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5249,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5284,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5319,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5354,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5389,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5424,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5459,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5494,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5529,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5564,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5599,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5634,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5669,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5704,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5739,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5774,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5809,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5844,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5879,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5914,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5949,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5984,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6019,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6054,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6089,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6124,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6159,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6194,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6229,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6264,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6299,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6334,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6369,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6404,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6439,7 +6521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6474,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6509,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6544,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6579,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6614,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6649,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6684,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6719,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6754,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6789,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6824,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6859,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6894,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6929,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6964,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6999,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7034,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7069,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7104,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7139,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7174,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7209,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7244,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7279,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7314,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7349,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7384,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7419,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7454,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7489,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7524,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7559,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7594,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7629,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7664,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7699,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7734,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7769,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7804,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7839,7 +7921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7874,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7909,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7944,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7979,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8014,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8049,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8084,7 +8166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8119,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8154,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8189,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8224,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8259,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8294,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8329,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8364,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8399,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8434,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8469,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8504,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8539,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8574,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8609,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8644,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8679,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8714,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8749,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8784,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8819,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8854,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8889,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8924,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8959,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8994,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9029,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9064,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9099,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9134,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9169,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9204,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9239,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9274,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9309,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9344,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9379,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9414,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9449,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9484,7 +9566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9519,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9554,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9589,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9624,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9659,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9694,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9729,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9764,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9799,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9834,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9869,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9904,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9939,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9974,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10009,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10044,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10079,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10114,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10149,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10184,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10219,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10254,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10289,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10324,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10359,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10394,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10429,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10464,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10499,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10534,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10569,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10604,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10639,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10674,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10709,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10744,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10779,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10814,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10849,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10884,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10919,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10954,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10989,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11024,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -11059,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -11094,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11129,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11164,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11199,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11234,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11269,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11304,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -11339,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -11374,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11409,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11444,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11479,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11514,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11549,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11584,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11619,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11654,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11689,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11724,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11759,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11812,17 +11894,17 @@
       <selection pane="bottomLeft" activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11848,7 +11930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -11875,7 +11957,7 @@
         <v>58.41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43834</v>
       </c>
@@ -11902,7 +11984,7 @@
         <v>303.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43837</v>
       </c>
@@ -11929,7 +12011,7 @@
         <v>108.46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43840</v>
       </c>
@@ -11956,7 +12038,7 @@
         <v>153.34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43843</v>
       </c>
@@ -11983,7 +12065,7 @@
         <v>82.84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43846</v>
       </c>
@@ -12010,7 +12092,7 @@
         <v>95.58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43849</v>
       </c>
@@ -12037,7 +12119,7 @@
         <v>520.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43852</v>
       </c>
@@ -12064,7 +12146,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43855</v>
       </c>
@@ -12091,7 +12173,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43858</v>
       </c>
@@ -12118,7 +12200,7 @@
         <v>37.800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43861</v>
       </c>
@@ -12145,7 +12227,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43864</v>
       </c>
@@ -12172,7 +12254,7 @@
         <v>57.97</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43867</v>
       </c>
@@ -12199,7 +12281,7 @@
         <v>97.72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43870</v>
       </c>
@@ -12226,7 +12308,7 @@
         <v>77.88</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -12253,7 +12335,7 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43876</v>
       </c>
@@ -12280,7 +12362,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43879</v>
       </c>
@@ -12307,7 +12389,7 @@
         <v>93.739999999999981</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43882</v>
       </c>
@@ -12334,7 +12416,7 @@
         <v>349.32</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43885</v>
       </c>
@@ -12361,7 +12443,7 @@
         <v>78.540000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43888</v>
       </c>
@@ -12388,7 +12470,7 @@
         <v>93.72</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43892</v>
       </c>
@@ -12415,7 +12497,7 @@
         <v>158.94999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43895</v>
       </c>
@@ -12442,7 +12524,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43898</v>
       </c>
@@ -12469,7 +12551,7 @@
         <v>107.97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43901</v>
       </c>
@@ -12496,7 +12578,7 @@
         <v>139.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43904</v>
       </c>
@@ -12523,7 +12605,7 @@
         <v>160.82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43907</v>
       </c>
@@ -12550,7 +12632,7 @@
         <v>67.260000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43910</v>
       </c>
@@ -12577,7 +12659,7 @@
         <v>114.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43913</v>
       </c>
@@ -12604,7 +12686,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -12631,7 +12713,7 @@
         <v>192.61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43919</v>
       </c>
@@ -12658,7 +12740,7 @@
         <v>548.12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43922</v>
       </c>
@@ -12685,7 +12767,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43925</v>
       </c>
@@ -12712,7 +12794,7 @@
         <v>114.24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43928</v>
       </c>
@@ -12739,7 +12821,7 @@
         <v>161.07</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43931</v>
       </c>
@@ -12766,7 +12848,7 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -12793,7 +12875,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43937</v>
       </c>
@@ -12820,7 +12902,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43940</v>
       </c>
@@ -12847,7 +12929,7 @@
         <v>225.12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43943</v>
       </c>
@@ -12874,7 +12956,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43946</v>
       </c>
@@ -12901,7 +12983,7 @@
         <v>93.81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43949</v>
       </c>
@@ -12928,7 +13010,7 @@
         <v>107.52</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43952</v>
       </c>
@@ -12955,7 +13037,7 @@
         <v>117.81</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43955</v>
       </c>
@@ -12982,7 +13064,7 @@
         <v>196.35</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43958</v>
       </c>
@@ -13009,7 +13091,7 @@
         <v>391.92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43961</v>
       </c>
@@ -13036,7 +13118,7 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43964</v>
       </c>
@@ -13063,7 +13145,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43967</v>
       </c>
@@ -13090,7 +13172,7 @@
         <v>107.97</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43970</v>
       </c>
@@ -13117,7 +13199,7 @@
         <v>82.32</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43973</v>
       </c>
@@ -13144,7 +13226,7 @@
         <v>102.85</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43976</v>
       </c>
@@ -13171,7 +13253,7 @@
         <v>58.860000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43979</v>
       </c>
@@ -13198,7 +13280,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43982</v>
       </c>
@@ -13225,7 +13307,7 @@
         <v>115.17</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43985</v>
       </c>
@@ -13252,7 +13334,7 @@
         <v>817.92</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43988</v>
       </c>
@@ -13279,7 +13361,7 @@
         <v>142.12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43991</v>
       </c>
@@ -13306,7 +13388,7 @@
         <v>74.34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43994</v>
       </c>
@@ -13333,7 +13415,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43997</v>
       </c>
@@ -13360,7 +13442,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44000</v>
       </c>
@@ -13387,7 +13469,7 @@
         <v>132.62</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44003</v>
       </c>
@@ -13414,7 +13496,7 @@
         <v>541.62</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44006</v>
       </c>
@@ -13441,7 +13523,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44009</v>
       </c>
@@ -13468,7 +13550,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44012</v>
       </c>
@@ -13495,7 +13577,7 @@
         <v>144.84</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44015</v>
       </c>
@@ -13522,7 +13604,7 @@
         <v>92.04</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44018</v>
       </c>
@@ -13549,7 +13631,7 @@
         <v>97.72</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44021</v>
       </c>
@@ -13576,7 +13658,7 @@
         <v>240.72</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44024</v>
       </c>
@@ -13603,7 +13685,7 @@
         <v>146.58000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44027</v>
       </c>
@@ -13630,7 +13712,7 @@
         <v>140.25</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44030</v>
       </c>
@@ -13657,7 +13739,7 @@
         <v>134.63999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44033</v>
       </c>
@@ -13684,7 +13766,7 @@
         <v>159.04</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44036</v>
       </c>
@@ -13711,7 +13793,7 @@
         <v>95.37</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44039</v>
       </c>
@@ -13738,7 +13820,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44042</v>
       </c>
@@ -13765,7 +13847,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44045</v>
       </c>
@@ -13792,7 +13874,7 @@
         <v>389.08</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44048</v>
       </c>
@@ -13819,7 +13901,7 @@
         <v>200.09</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44051</v>
       </c>
@@ -13846,7 +13928,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44054</v>
       </c>
@@ -13873,7 +13955,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44057</v>
       </c>
@@ -13900,7 +13982,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44060</v>
       </c>
@@ -13927,7 +14009,7 @@
         <v>67.58</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44063</v>
       </c>
@@ -13954,7 +14036,7 @@
         <v>192.93</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44066</v>
       </c>
@@ -13981,7 +14063,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44069</v>
       </c>
@@ -14008,7 +14090,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44072</v>
       </c>
@@ -14035,7 +14117,7 @@
         <v>140.25</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44075</v>
       </c>
@@ -14062,7 +14144,7 @@
         <v>210.16</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44078</v>
       </c>
@@ -14089,7 +14171,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44081</v>
       </c>
@@ -14116,7 +14198,7 @@
         <v>61.040000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44084</v>
       </c>
@@ -14143,7 +14225,7 @@
         <v>253.11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44087</v>
       </c>
@@ -14170,7 +14252,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44090</v>
       </c>
@@ -14197,7 +14279,7 @@
         <v>235.41</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44093</v>
       </c>
@@ -14224,7 +14306,7 @@
         <v>239.8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44096</v>
       </c>
@@ -14251,7 +14333,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44099</v>
       </c>
@@ -14278,7 +14360,7 @@
         <v>61.71</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44102</v>
       </c>
@@ -14305,7 +14387,7 @@
         <v>176.58</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44105</v>
       </c>
@@ -14332,7 +14414,7 @@
         <v>136.29</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44108</v>
       </c>
@@ -14359,7 +14441,7 @@
         <v>132.62</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44111</v>
       </c>
@@ -14386,7 +14468,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44114</v>
       </c>
@@ -14413,7 +14495,7 @@
         <v>191.52</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44117</v>
       </c>
@@ -14440,7 +14522,7 @@
         <v>488.32000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44120</v>
       </c>
@@ -14467,7 +14549,7 @@
         <v>249.57</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44123</v>
       </c>
@@ -14494,7 +14576,7 @@
         <v>111.68</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44126</v>
       </c>
@@ -14521,7 +14603,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44129</v>
       </c>
@@ -14548,7 +14630,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44132</v>
       </c>
@@ -14575,7 +14657,7 @@
         <v>91.63</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44135</v>
       </c>
@@ -14602,7 +14684,7 @@
         <v>160.54</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44138</v>
       </c>
@@ -14629,7 +14711,7 @@
         <v>69.03</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44141</v>
       </c>
@@ -14656,7 +14738,7 @@
         <v>104.16</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44144</v>
       </c>
@@ -14683,7 +14765,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44147</v>
       </c>
@@ -14710,7 +14792,7 @@
         <v>224.53999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44150</v>
       </c>
@@ -14737,7 +14819,7 @@
         <v>90.88</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44153</v>
       </c>
@@ -14764,7 +14846,7 @@
         <v>123.42</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44156</v>
       </c>
@@ -14791,7 +14873,7 @@
         <v>275.48</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44159</v>
       </c>
@@ -14818,7 +14900,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44162</v>
       </c>
@@ -14845,7 +14927,7 @@
         <v>48.72</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44165</v>
       </c>
@@ -14872,7 +14954,7 @@
         <v>162.84</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44168</v>
       </c>
@@ -14899,7 +14981,7 @@
         <v>303.02</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44171</v>
       </c>
@@ -14926,7 +15008,7 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44174</v>
       </c>
@@ -14953,7 +15035,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44177</v>
       </c>
@@ -14980,7 +15062,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44180</v>
       </c>
@@ -15007,7 +15089,7 @@
         <v>143.09</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44183</v>
       </c>
@@ -15034,7 +15116,7 @@
         <v>77.88</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44186</v>
       </c>
@@ -15061,7 +15143,7 @@
         <v>48.72</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44189</v>
       </c>
@@ -15088,7 +15170,7 @@
         <v>516.66</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44192</v>
       </c>
@@ -15115,7 +15197,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44195</v>
       </c>
@@ -15142,7 +15224,7 @@
         <v>180.94000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44198</v>
       </c>
@@ -15169,7 +15251,7 @@
         <v>69.760000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44201</v>
       </c>
@@ -15196,7 +15278,7 @@
         <v>111.51</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44204</v>
       </c>
@@ -15223,7 +15305,7 @@
         <v>91.35</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44207</v>
       </c>
@@ -15250,7 +15332,7 @@
         <v>143.99</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44210</v>
       </c>
@@ -15277,7 +15359,7 @@
         <v>227.2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44213</v>
       </c>
@@ -15304,7 +15386,7 @@
         <v>180.54</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44216</v>
       </c>
@@ -15331,7 +15413,7 @@
         <v>108.19</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44219</v>
       </c>
@@ -15358,7 +15440,7 @@
         <v>99.12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44222</v>
       </c>
@@ -15385,7 +15467,7 @@
         <v>113.36000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44225</v>
       </c>
@@ -15412,7 +15494,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44228</v>
       </c>
@@ -15439,7 +15521,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44231</v>
       </c>
@@ -15466,7 +15548,7 @@
         <v>126.44000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44234</v>
       </c>
@@ -15493,7 +15575,7 @@
         <v>63.58</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44237</v>
       </c>
@@ -15520,7 +15602,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44240</v>
       </c>
@@ -15547,7 +15629,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44243</v>
       </c>
@@ -15574,7 +15656,7 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44246</v>
       </c>
@@ -15601,7 +15683,7 @@
         <v>120.36</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44249</v>
       </c>
@@ -15628,7 +15710,7 @@
         <v>97.65</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44252</v>
       </c>
@@ -15655,7 +15737,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44255</v>
       </c>
@@ -15682,7 +15764,7 @@
         <v>433.84</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44257</v>
       </c>
@@ -15709,7 +15791,7 @@
         <v>127.16</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44260</v>
       </c>
@@ -15736,7 +15818,7 @@
         <v>275.48</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44263</v>
       </c>
@@ -15763,7 +15845,7 @@
         <v>160.82</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44266</v>
       </c>
@@ -15790,7 +15872,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44269</v>
       </c>
@@ -15817,7 +15899,7 @@
         <v>164.61</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44272</v>
       </c>
@@ -15844,7 +15926,7 @@
         <v>78.959999999999994</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44275</v>
       </c>
@@ -15871,7 +15953,7 @@
         <v>182.31</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44278</v>
       </c>
@@ -15898,7 +15980,7 @@
         <v>55.44</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44281</v>
       </c>
@@ -15925,7 +16007,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44284</v>
       </c>
@@ -15952,7 +16034,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44287</v>
       </c>
@@ -15979,7 +16061,7 @@
         <v>208.86</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44290</v>
       </c>
@@ -16006,7 +16088,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44293</v>
       </c>
@@ -16033,7 +16115,7 @@
         <v>349.32</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44296</v>
       </c>
@@ -16060,7 +16142,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44299</v>
       </c>
@@ -16087,7 +16169,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44302</v>
       </c>
@@ -16114,7 +16196,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44305</v>
       </c>
@@ -16141,7 +16223,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44308</v>
       </c>
@@ -16168,7 +16250,7 @@
         <v>125.29</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44311</v>
       </c>
@@ -16195,7 +16277,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44314</v>
       </c>
@@ -16222,7 +16304,7 @@
         <v>366.36</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44317</v>
       </c>
@@ -16249,7 +16331,7 @@
         <v>167.86</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44320</v>
       </c>
@@ -16276,7 +16358,7 @@
         <v>108.46</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44323</v>
       </c>
@@ -16303,7 +16385,7 @@
         <v>87.89</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44326</v>
       </c>
@@ -16330,7 +16412,7 @@
         <v>93.72</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44329</v>
       </c>
@@ -16357,7 +16439,7 @@
         <v>153.34</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44332</v>
       </c>
@@ -16384,7 +16466,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44335</v>
       </c>
@@ -16411,7 +16493,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44338</v>
       </c>
@@ -16438,7 +16520,7 @@
         <v>80.41</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44341</v>
       </c>
@@ -16465,7 +16547,7 @@
         <v>148.68</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44344</v>
       </c>
@@ -16492,7 +16574,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44347</v>
       </c>
@@ -16519,7 +16601,7 @@
         <v>124.96</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44350</v>
       </c>
@@ -16546,7 +16628,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44353</v>
       </c>
@@ -16573,7 +16655,7 @@
         <v>340.8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44356</v>
       </c>
@@ -16600,7 +16682,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44359</v>
       </c>
@@ -16627,7 +16709,7 @@
         <v>129.21</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44362</v>
       </c>
@@ -16654,7 +16736,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44365</v>
       </c>
@@ -16681,7 +16763,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44368</v>
       </c>
@@ -16708,7 +16790,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44371</v>
       </c>
@@ -16735,7 +16817,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44374</v>
       </c>
@@ -16762,7 +16844,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44377</v>
       </c>
@@ -16789,7 +16871,7 @@
         <v>118.66</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44380</v>
       </c>
@@ -16816,7 +16898,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44383</v>
       </c>
@@ -16843,7 +16925,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44386</v>
       </c>
@@ -16870,7 +16952,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44389</v>
       </c>
@@ -16897,7 +16979,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44392</v>
       </c>
@@ -16924,7 +17006,7 @@
         <v>48.62</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44395</v>
       </c>
@@ -16951,7 +17033,7 @@
         <v>49.94</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44398</v>
       </c>
@@ -16978,7 +17060,7 @@
         <v>59.84</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44401</v>
       </c>
@@ -17005,7 +17087,7 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44404</v>
       </c>
@@ -17032,7 +17114,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44407</v>
       </c>
@@ -17059,7 +17141,7 @@
         <v>119.68</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44410</v>
       </c>
@@ -17086,7 +17168,7 @@
         <v>125.67</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44413</v>
       </c>
@@ -17113,7 +17195,7 @@
         <v>196.2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44416</v>
       </c>
@@ -17140,7 +17222,7 @@
         <v>107.91999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44419</v>
       </c>
@@ -17167,7 +17249,7 @@
         <v>97.35</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44422</v>
       </c>
@@ -17194,7 +17276,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44425</v>
       </c>
@@ -17221,7 +17303,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44428</v>
       </c>
@@ -17248,7 +17330,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44431</v>
       </c>
@@ -17275,7 +17357,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44434</v>
       </c>
@@ -17302,7 +17384,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44437</v>
       </c>
@@ -17329,7 +17411,7 @@
         <v>296.48</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44440</v>
       </c>
@@ -17356,7 +17438,7 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44443</v>
       </c>
@@ -17383,7 +17465,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44446</v>
       </c>
@@ -17410,7 +17492,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44449</v>
       </c>
@@ -17437,7 +17519,7 @@
         <v>224.36</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44452</v>
       </c>
@@ -17464,7 +17546,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44455</v>
       </c>
@@ -17491,7 +17573,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44458</v>
       </c>
@@ -17518,7 +17600,7 @@
         <v>86.73</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44461</v>
       </c>
@@ -17545,7 +17627,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44464</v>
       </c>
@@ -17572,7 +17654,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44467</v>
       </c>
@@ -17599,7 +17681,7 @@
         <v>66.150000000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44470</v>
       </c>
@@ -17626,7 +17708,7 @@
         <v>80.41</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44473</v>
       </c>
@@ -17653,7 +17735,7 @@
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44476</v>
       </c>
@@ -17680,7 +17762,7 @@
         <v>381.5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44479</v>
       </c>
@@ -17707,7 +17789,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44482</v>
       </c>
@@ -17734,7 +17816,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44485</v>
       </c>
@@ -17761,7 +17843,7 @@
         <v>189.66000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44488</v>
       </c>
@@ -17788,7 +17870,7 @@
         <v>76.11</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44491</v>
       </c>
@@ -17815,7 +17897,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44494</v>
       </c>
@@ -17842,7 +17924,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44497</v>
       </c>
@@ -17869,7 +17951,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44500</v>
       </c>
@@ -17896,7 +17978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44503</v>
       </c>
@@ -17923,7 +18005,7 @@
         <v>44.88</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44506</v>
       </c>
@@ -17950,7 +18032,7 @@
         <v>155.21</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44509</v>
       </c>
@@ -17977,7 +18059,7 @@
         <v>352.16</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44512</v>
       </c>
@@ -18004,7 +18086,7 @@
         <v>242.49</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44515</v>
       </c>
@@ -18031,7 +18113,7 @@
         <v>318.27999999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44518</v>
       </c>
@@ -18058,7 +18140,7 @@
         <v>63.58</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44521</v>
       </c>
@@ -18085,7 +18167,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44524</v>
       </c>
@@ -18112,7 +18194,7 @@
         <v>303.02</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44527</v>
       </c>
@@ -18139,7 +18221,7 @@
         <v>394.57</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44530</v>
       </c>
@@ -18166,7 +18248,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44533</v>
       </c>
@@ -18193,7 +18275,7 @@
         <v>78.540000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44536</v>
       </c>
@@ -18220,7 +18302,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44539</v>
       </c>
@@ -18247,7 +18329,7 @@
         <v>67.260000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44542</v>
       </c>
@@ -18274,7 +18356,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44545</v>
       </c>
@@ -18301,7 +18383,7 @@
         <v>179.52</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44548</v>
       </c>
@@ -18328,7 +18410,7 @@
         <v>74.12</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44551</v>
       </c>
@@ -18355,7 +18437,7 @@
         <v>458.15</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44554</v>
       </c>
@@ -18382,7 +18464,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44557</v>
       </c>
@@ -18409,7 +18491,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44560</v>
       </c>
@@ -18436,7 +18518,7 @@
         <v>124.96</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="35"/>
       <c r="B246" t="s">
         <v>6</v>
@@ -18482,18 +18564,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6D4EB6-15AA-4E2A-8710-29C8012F0C57}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>227</v>
       </c>
@@ -18510,7 +18599,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>208</v>
       </c>
@@ -18527,7 +18616,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>235</v>
       </c>
@@ -18544,7 +18633,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>239</v>
       </c>
@@ -18561,7 +18650,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>242</v>
       </c>
@@ -18578,7 +18667,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>244</v>
       </c>
@@ -18595,7 +18684,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>246</v>
       </c>
@@ -18612,7 +18701,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>248</v>
       </c>
@@ -18629,7 +18718,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>250</v>
       </c>
@@ -18646,7 +18735,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>252</v>
       </c>
@@ -18663,7 +18752,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>254</v>
       </c>
@@ -18680,7 +18769,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>256</v>
       </c>
@@ -18697,7 +18786,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>259</v>
       </c>
@@ -18714,7 +18803,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>261</v>
       </c>
@@ -18731,7 +18820,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>263</v>
       </c>
@@ -18748,7 +18837,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>265</v>
       </c>
@@ -18765,7 +18854,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
@@ -18782,7 +18871,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>268</v>
       </c>
@@ -18799,7 +18888,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>270</v>
       </c>
@@ -18816,7 +18905,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>272</v>
       </c>
@@ -18833,7 +18922,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>274</v>
       </c>
@@ -18850,7 +18939,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>276</v>
       </c>
@@ -18867,7 +18956,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>278</v>
       </c>
@@ -18884,7 +18973,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>280</v>
       </c>
@@ -18901,7 +18990,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>281</v>
       </c>
@@ -18916,6 +19005,418 @@
       </c>
       <c r="E25" s="32">
         <v>70000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="N28" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="T28" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="U28" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="V28" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="W28" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X28" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y28" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="N29" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="O29" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="P29" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="R29" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="S29" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="T29" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="U29" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="V29" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="W29" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X29" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="R30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="S30" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="T30" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="U30" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="V30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="W30" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="X30" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y30" s="31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="P31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="R31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="T31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="U31" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="V31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="W31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="X31" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y31" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="32">
+        <v>65000</v>
+      </c>
+      <c r="C32" s="32">
+        <v>62000</v>
+      </c>
+      <c r="D32" s="32">
+        <v>68000</v>
+      </c>
+      <c r="E32" s="32">
+        <v>64000</v>
+      </c>
+      <c r="F32" s="32">
+        <v>66000</v>
+      </c>
+      <c r="G32" s="32">
+        <v>63000</v>
+      </c>
+      <c r="H32" s="32">
+        <v>61000</v>
+      </c>
+      <c r="I32" s="32">
+        <v>60000</v>
+      </c>
+      <c r="J32" s="32">
+        <v>58000</v>
+      </c>
+      <c r="K32" s="32">
+        <v>70000</v>
+      </c>
+      <c r="L32" s="32">
+        <v>55000</v>
+      </c>
+      <c r="M32" s="32">
+        <v>57000</v>
+      </c>
+      <c r="N32" s="32">
+        <v>59000</v>
+      </c>
+      <c r="O32" s="32">
+        <v>68000</v>
+      </c>
+      <c r="P32" s="32">
+        <v>72000</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>75000</v>
+      </c>
+      <c r="R32" s="32">
+        <v>71000</v>
+      </c>
+      <c r="S32" s="32">
+        <v>56000</v>
+      </c>
+      <c r="T32" s="32">
+        <v>58000</v>
+      </c>
+      <c r="U32" s="32">
+        <v>55000</v>
+      </c>
+      <c r="V32" s="32">
+        <v>65000</v>
+      </c>
+      <c r="W32" s="32">
+        <v>63000</v>
+      </c>
+      <c r="X32" s="32">
+        <v>68000</v>
+      </c>
+      <c r="Y32" s="32">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36">
+        <f>HLOOKUP(B36, A28:Y32,5,FALSE)</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="str">
+        <f>HLOOKUP(B37,A28:Y32,3,FALSE)</f>
+        <v>Analyst</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" t="str">
+        <f>HLOOKUP(B38,A28:Y32,3,)</f>
+        <v>Software Engineer</v>
       </c>
     </row>
   </sheetData>
@@ -18929,17 +19430,17 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>113</v>
       </c>
@@ -18962,7 +19463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>213</v>
       </c>
@@ -18978,8 +19479,14 @@
       <c r="E2" s="24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>214</v>
       </c>
@@ -18995,8 +19502,14 @@
       <c r="E3" s="24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>746</v>
+      </c>
+      <c r="G3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>215</v>
       </c>
@@ -19012,8 +19525,14 @@
       <c r="E4" s="24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>216</v>
       </c>
@@ -19029,8 +19548,14 @@
       <c r="E5" s="24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>217</v>
       </c>
@@ -19046,8 +19571,14 @@
       <c r="E6" s="24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>751</v>
+      </c>
+      <c r="G6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>218</v>
       </c>
@@ -19063,8 +19594,14 @@
       <c r="E7" s="24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>753</v>
+      </c>
+      <c r="G7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>219</v>
       </c>
@@ -19080,8 +19617,14 @@
       <c r="E8" s="24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>755</v>
+      </c>
+      <c r="G8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>220</v>
       </c>
@@ -19097,8 +19640,14 @@
       <c r="E9" s="24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>757</v>
+      </c>
+      <c r="G9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>221</v>
       </c>
@@ -19114,8 +19663,14 @@
       <c r="E10" s="24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G10" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>222</v>
       </c>
@@ -19131,8 +19686,14 @@
       <c r="E11" s="24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>761</v>
+      </c>
+      <c r="G11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>223</v>
       </c>
@@ -19148,8 +19709,14 @@
       <c r="E12" s="24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>763</v>
+      </c>
+      <c r="G12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>224</v>
       </c>
@@ -19164,6 +19731,12 @@
       </c>
       <c r="E13" s="27" t="s">
         <v>209</v>
+      </c>
+      <c r="F13" t="s">
+        <v>765</v>
+      </c>
+      <c r="G13" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -19180,9 +19753,9 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>112</v>
       </c>
@@ -19232,7 +19805,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>158</v>
       </c>
@@ -19283,7 +19856,7 @@
         <v>Summer  2016</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>161</v>
       </c>
@@ -19330,7 +19903,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>175</v>
       </c>
@@ -19377,7 +19950,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>450</v>
       </c>
@@ -19424,7 +19997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>794</v>
       </c>
@@ -19471,7 +20044,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>796</v>
       </c>
@@ -19518,7 +20091,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>797</v>
       </c>
@@ -19565,7 +20138,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>814</v>
       </c>
@@ -19612,7 +20185,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1029</v>
       </c>
@@ -19670,12 +20243,20 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="A1:O10"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>112</v>
       </c>
@@ -19722,7 +20303,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>158</v>
       </c>
@@ -19773,7 +20354,7 @@
         <v>Giovanni Abagnale</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>161</v>
       </c>
@@ -19819,8 +20400,12 @@
       <c r="O3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P19" si="0">TRIM(C3)</f>
+        <v>Patimat Abakarova</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>175</v>
       </c>
@@ -19866,8 +20451,12 @@
       <c r="O4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>Luc Abalo</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>450</v>
       </c>
@@ -19913,8 +20502,12 @@
       <c r="O5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>Saeid Morad Abdevali</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>794</v>
       </c>
@@ -19960,8 +20553,12 @@
       <c r="O6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>Denis Mikhaylovich Ablyazin</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>796</v>
       </c>
@@ -20007,8 +20604,12 @@
       <c r="O7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>Denis Mikhaylovich Ablyazin</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>797</v>
       </c>
@@ -20054,8 +20655,12 @@
       <c r="O8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>Denis Mikhaylovich Ablyazin</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>814</v>
       </c>
@@ -20101,8 +20706,12 @@
       <c r="O9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>Matthew "Matt" Abood</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1029</v>
       </c>
@@ -20148,8 +20757,12 @@
       <c r="O10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>Alejandro "lex" Abrines Redondo</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1080</v>
       </c>
@@ -20195,8 +20808,12 @@
       <c r="O11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ahmad Abughaush</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1228</v>
       </c>
@@ -20242,8 +20859,12 @@
       <c r="O12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>Chantal Achterberg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1495</v>
       </c>
@@ -20289,8 +20910,12 @@
       <c r="O13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicola Virginia Adams</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1514</v>
       </c>
@@ -20336,8 +20961,12 @@
       <c r="O14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>Rachael Alexis Adams</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1529</v>
       </c>
@@ -20383,8 +21012,12 @@
       <c r="O15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>Valerie Kasanita Adams-Vili (-Price)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1847</v>
       </c>
@@ -20430,8 +21063,12 @@
       <c r="O16" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>Nathan Ghar-Jun Adrian</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1848</v>
       </c>
@@ -20477,8 +21114,12 @@
       <c r="O17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>Nathan Ghar-Jun Adrian</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1849</v>
       </c>
@@ -20524,8 +21165,12 @@
       <c r="O18" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nathan Ghar-Jun Adrian</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1850</v>
       </c>
@@ -20570,6 +21215,10 @@
       </c>
       <c r="O19" t="s">
         <v>168</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>Nathan Ghar-Jun Adrian</v>
       </c>
     </row>
   </sheetData>
@@ -20580,15 +21229,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D4DC9C-6057-4960-9192-7DC238697731}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -20607,8 +21256,11 @@
       <c r="G1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20630,8 +21282,12 @@
       <c r="G2">
         <v>408.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>ROUND(G2,1)</f>
+        <v>408.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20653,8 +21309,12 @@
       <c r="G3">
         <v>120.366</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H22" si="0">ROUND(G3,1)</f>
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -20676,8 +21336,12 @@
       <c r="G4">
         <v>66.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -20699,8 +21363,12 @@
       <c r="G5">
         <v>44.865000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -20722,8 +21390,12 @@
       <c r="G6">
         <v>113.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -20745,8 +21417,12 @@
       <c r="G7">
         <v>55.241999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -20768,8 +21444,12 @@
       <c r="G8">
         <v>285.77999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>285.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -20791,8 +21471,12 @@
       <c r="G9">
         <v>290.666</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>290.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -20814,8 +21498,12 @@
       <c r="G10">
         <v>206.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>206.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -20837,8 +21525,12 @@
       <c r="G11">
         <v>162.72</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>162.69999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -20860,8 +21552,12 @@
       <c r="G12">
         <v>352.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>352.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -20883,8 +21579,12 @@
       <c r="G13">
         <v>400.70400000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>400.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -20906,8 +21606,12 @@
       <c r="G14">
         <v>309.60000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>309.60000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -20929,8 +21633,12 @@
       <c r="G15">
         <v>139.65</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>139.69999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -20952,8 +21660,12 @@
       <c r="G16">
         <v>40.68</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -20975,8 +21687,12 @@
       <c r="G17">
         <v>81.983999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -20998,8 +21714,12 @@
       <c r="G18">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21021,8 +21741,12 @@
       <c r="G19">
         <v>22.65</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -21044,8 +21768,12 @@
       <c r="G20">
         <v>20.34</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -21067,8 +21795,12 @@
       <c r="G21">
         <v>21.39</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21090,8 +21822,12 @@
       <c r="G22">
         <v>21.06</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="18" t="s">
         <v>75</v>
@@ -21105,7 +21841,7 @@
         <v>290.67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -21124,17 +21860,20 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -21154,7 +21893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -21177,7 +21916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21200,7 +21939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21220,7 +21959,7 @@
         <v>7158024</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21243,7 +21982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21266,7 +22005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21286,7 +22025,7 @@
         <v>5691287</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21309,7 +22048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21332,7 +22071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21355,7 +22094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21378,7 +22117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21401,7 +22140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21424,7 +22163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21444,7 +22183,7 @@
         <v>1750536</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -21467,7 +22206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -21490,7 +22229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -21513,7 +22252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -21536,7 +22275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21559,7 +22298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -21582,7 +22321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -21605,7 +22344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21628,7 +22367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17" t="s">
@@ -21638,10 +22377,16 @@
         <f>COUNT(D2:D22)</f>
         <v>21</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="17">
+        <f>COUNT(E2:E22)</f>
+        <v>21</v>
+      </c>
+      <c r="F24" s="17">
+        <f>COUNT(F2:F22)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17" t="s">
@@ -21651,10 +22396,13 @@
         <f>COUNTA(B2:B22)</f>
         <v>21</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="17">
+        <f>COUNTA(C2:C22)</f>
+        <v>21</v>
+      </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
@@ -21667,7 +22415,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>111</v>
       </c>
@@ -21679,7 +22427,7 @@
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -21705,7 +22453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -21731,7 +22479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -21757,7 +22505,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -21783,7 +22531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -21806,7 +22554,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>5</v>
       </c>
@@ -21829,7 +22577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -21855,7 +22603,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -21878,7 +22626,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -21901,7 +22649,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -21924,7 +22672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10</v>
       </c>
@@ -21947,7 +22695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11</v>
       </c>
@@ -21970,7 +22718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -21996,7 +22744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>13</v>
       </c>
@@ -22022,7 +22770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -22048,7 +22796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15</v>
       </c>
@@ -22074,7 +22822,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16</v>
       </c>
@@ -22100,7 +22848,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>17</v>
       </c>
@@ -22126,7 +22874,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>18</v>
       </c>
@@ -22140,7 +22888,7 @@
         <v>1.5</v>
       </c>
       <c r="E47">
-        <v>39.5</v>
+        <v>39.5456</v>
       </c>
       <c r="F47">
         <v>216</v>
@@ -22152,7 +22900,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>19</v>
       </c>
@@ -22175,7 +22923,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20</v>
       </c>
@@ -22198,41 +22946,69 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="C51" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="19">
+        <f>COUNT(D30:D49)</f>
+        <v>20</v>
+      </c>
+      <c r="E51" s="19">
+        <f>COUNT(E30:E49)</f>
+        <v>20</v>
+      </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="C52" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="19">
+        <f>COUNTA(B30:B49)</f>
+        <v>20</v>
+      </c>
+      <c r="E52" s="19">
+        <f>COUNTA(G30:G49)</f>
+        <v>20</v>
+      </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+      <c r="C53" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="19">
+        <f>COUNTBLANK(H30:H49)</f>
+        <v>9</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>742</v>
+      </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="19">
+        <f>ROUND(E47,2)</f>
+        <v>39.549999999999997</v>
+      </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -22252,15 +23028,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>27</v>
       </c>
@@ -22286,7 +23062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="6">
@@ -22310,7 +23086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="6">
@@ -22332,7 +23108,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="40"/>
       <c r="C4" s="6">
@@ -22356,7 +23132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="40"/>
       <c r="C5" s="6">
@@ -22380,7 +23156,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="6">
@@ -22404,7 +23180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="42"/>
       <c r="C7" s="6">
@@ -22428,7 +23204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -22456,7 +23232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -22488,7 +23264,7 @@
         <v>8.7142857142857135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -22520,7 +23296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -22552,7 +23328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -22584,7 +23360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>5</v>
       </c>
@@ -22616,7 +23392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -22648,7 +23424,7 @@
         <v>915200</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -22680,7 +23456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18">
         <f>_xlfn.AGGREGATE(9,2,E1:E8)</f>
         <v>10.9</v>
@@ -22719,12 +23495,12 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -22759,7 +23535,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>43831</v>
       </c>
@@ -22794,7 +23570,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>43834</v>
       </c>
@@ -22829,7 +23605,7 @@
         <v>Above 60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43837</v>
       </c>
@@ -22864,7 +23640,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>43840</v>
       </c>
@@ -22899,7 +23675,7 @@
         <v>Above 60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43843</v>
       </c>
@@ -22934,7 +23710,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43846</v>
       </c>
@@ -22969,7 +23745,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43849</v>
       </c>
@@ -23004,7 +23780,7 @@
         <v>Above 60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43852</v>
       </c>
@@ -23039,7 +23815,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>43855</v>
       </c>
@@ -23074,7 +23850,7 @@
         <v>Above 60</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>43858</v>
       </c>
@@ -23109,7 +23885,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>43861</v>
       </c>
@@ -23144,7 +23920,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>43864</v>
       </c>
@@ -23179,7 +23955,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>43867</v>
       </c>
@@ -23214,7 +23990,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>43870</v>
       </c>
@@ -23249,7 +24025,7 @@
         <v>Below 60</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
     </row>
   </sheetData>
